--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1947.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1947.xlsx
@@ -354,10 +354,10 @@
         <v>1.521855910022229</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.499179652670944</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1947.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1947.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9081857318673998</v>
+        <v>0.3106942176818848</v>
       </c>
       <c r="B1">
-        <v>1.521855910022229</v>
+        <v>0.3908534348011017</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.5684199929237366</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.31817626953125</v>
       </c>
       <c r="E1">
-        <v>1.499179652670944</v>
+        <v>5.575554847717285</v>
       </c>
     </row>
   </sheetData>
